--- a/SWE 2/ST-Comm_Testing/signUpData.xlsx
+++ b/SWE 2/ST-Comm_Testing/signUpData.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="41">
-  <si>
-    <t>John</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="46">
   <si>
     <t>Jack</t>
   </si>
@@ -114,9 +111,6 @@
     <t>jack@XYZ.edu.eg</t>
   </si>
   <si>
-    <t>john1@XYZ.edu.eg</t>
-  </si>
-  <si>
     <t>salwa@XYZ.edu.eg</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>ola@XYZ.edu.eg</t>
   </si>
   <si>
-    <t>z@XYZ.edu.eg</t>
-  </si>
-  <si>
     <t>AndrewEmad</t>
   </si>
   <si>
@@ -142,6 +133,30 @@
   </si>
   <si>
     <t>mariamashraf096@gmail.com</t>
+  </si>
+  <si>
+    <t>john1@XYZ.abc</t>
+  </si>
+  <si>
+    <t>salma@XYZ.abc</t>
+  </si>
+  <si>
+    <t>salma@XYZ.edu.abc</t>
+  </si>
+  <si>
+    <t>salma@XYZ.com</t>
+  </si>
+  <si>
+    <t>z@XYZ.abc</t>
+  </si>
+  <si>
+    <t>omnia</t>
+  </si>
+  <si>
+    <t>salwa@XYZ.abc</t>
+  </si>
+  <si>
+    <t>Mariam</t>
   </si>
 </sst>
 </file>
@@ -476,7 +491,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,25 +501,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2">
         <v>35381</v>
@@ -512,25 +527,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
       </c>
       <c r="H2" s="2">
         <v>29252</v>
@@ -538,25 +553,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
       </c>
       <c r="H3" s="2">
         <v>34580</v>
@@ -564,25 +579,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
       </c>
       <c r="H4" s="2">
         <v>33825</v>
@@ -590,25 +605,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2">
         <v>36075</v>
@@ -616,25 +631,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
       </c>
       <c r="H6" s="2">
         <v>35250</v>
@@ -642,25 +657,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H7" s="2">
         <v>35065</v>
@@ -668,25 +683,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
         <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
       </c>
       <c r="H8" s="2">
         <v>36872</v>
@@ -694,25 +709,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
         <v>20</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
       </c>
       <c r="H9" s="2">
         <v>36872</v>
@@ -720,25 +735,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" t="s">
         <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
       </c>
       <c r="H10" s="2">
         <v>36872</v>
@@ -746,265 +761,265 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
         <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
       </c>
       <c r="H21" s="2">
         <v>35250</v>
@@ -1012,25 +1027,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
         <v>6</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
       </c>
       <c r="H22" s="2">
         <v>36161</v>
@@ -1038,25 +1053,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="s">
         <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" t="s">
-        <v>21</v>
       </c>
       <c r="H23" s="2">
         <v>36872</v>
@@ -1064,25 +1079,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="s">
         <v>20</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
       </c>
       <c r="H24" s="2">
         <v>36872</v>
@@ -1092,18 +1107,18 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="jack@gmail.edu.eg"/>
     <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3" display="john1@gmail.edu.eg"/>
-    <hyperlink ref="B5" r:id="rId4" display="john1@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B3" r:id="rId5"/>
     <hyperlink ref="B6" r:id="rId6" display="salwa@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId7" display="salma@gmail.com"/>
-    <hyperlink ref="B9" r:id="rId8" display="salma@gmail.com"/>
-    <hyperlink ref="B10" r:id="rId9" display="salma@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
     <hyperlink ref="B12" r:id="rId10" display="xyz@gmail.com"/>
     <hyperlink ref="B13" r:id="rId11" display="ola@gmail.com"/>
-    <hyperlink ref="B14" r:id="rId12" display="salma@gmail.com"/>
-    <hyperlink ref="B20" r:id="rId13" display="z@gmail.com"/>
-    <hyperlink ref="B21" r:id="rId14" display="salwa@gmail.com"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B20" r:id="rId13"/>
+    <hyperlink ref="B21" r:id="rId14"/>
     <hyperlink ref="B23" r:id="rId15" display="salma@gmail.com"/>
     <hyperlink ref="B24" r:id="rId16" display="salma@gmail.com"/>
   </hyperlinks>

--- a/SWE 2/ST-Comm_Testing/signUpData.xlsx
+++ b/SWE 2/ST-Comm_Testing/signUpData.xlsx
@@ -491,7 +491,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/SWE 2/ST-Comm_Testing/signUpData.xlsx
+++ b/SWE 2/ST-Comm_Testing/signUpData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="2565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11310" windowHeight="3090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -108,21 +109,6 @@
     <t/>
   </si>
   <si>
-    <t>jack@XYZ.edu.eg</t>
-  </si>
-  <si>
-    <t>salwa@XYZ.edu.eg</t>
-  </si>
-  <si>
-    <t>salma@XYZ.edu.eg</t>
-  </si>
-  <si>
-    <t>xyz@XYZ.edu.eg</t>
-  </si>
-  <si>
-    <t>ola@XYZ.edu.eg</t>
-  </si>
-  <si>
     <t>AndrewEmad</t>
   </si>
   <si>
@@ -135,28 +121,43 @@
     <t>mariamashraf096@gmail.com</t>
   </si>
   <si>
-    <t>john1@XYZ.abc</t>
-  </si>
-  <si>
-    <t>salma@XYZ.abc</t>
-  </si>
-  <si>
-    <t>salma@XYZ.edu.abc</t>
-  </si>
-  <si>
-    <t>salma@XYZ.com</t>
-  </si>
-  <si>
-    <t>z@XYZ.abc</t>
-  </si>
-  <si>
     <t>omnia</t>
   </si>
   <si>
-    <t>salwa@XYZ.abc</t>
-  </si>
-  <si>
     <t>Mariam</t>
+  </si>
+  <si>
+    <t>jack@xyz.edu.eg</t>
+  </si>
+  <si>
+    <t>john1@xyz.abc</t>
+  </si>
+  <si>
+    <t>salwa@xyz.abc</t>
+  </si>
+  <si>
+    <t>salma@xyz.abc</t>
+  </si>
+  <si>
+    <t>salma@xyz.edu.abc</t>
+  </si>
+  <si>
+    <t>salma@xyz.com</t>
+  </si>
+  <si>
+    <t>xyz@xyz.edu.eg</t>
+  </si>
+  <si>
+    <t>ola@xyz.edu.eg</t>
+  </si>
+  <si>
+    <t>z@xyz.abc</t>
+  </si>
+  <si>
+    <t>salwa@xyz.edu.eg</t>
+  </si>
+  <si>
+    <t>salma@xyz.edu.eg</t>
   </si>
 </sst>
 </file>
@@ -491,7 +492,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -501,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -530,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -553,10 +554,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -579,10 +580,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -608,7 +609,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -634,7 +635,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -686,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -712,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -738,7 +739,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -788,7 +789,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -809,10 +810,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
@@ -836,7 +837,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>28</v>
@@ -980,7 +981,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -1056,7 +1057,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
@@ -1082,7 +1083,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1108,17 +1109,17 @@
     <hyperlink ref="B2" r:id="rId1" display="jack@gmail.edu.eg"/>
     <hyperlink ref="B1" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId4" display="john1@XYZ.abc"/>
     <hyperlink ref="B3" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6" display="salwa@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId6" display="salwa@XYZ.abc"/>
+    <hyperlink ref="B8" r:id="rId7" display="salma@XYZ.abc"/>
+    <hyperlink ref="B9" r:id="rId8" display="salma@XYZ.edu.abc"/>
+    <hyperlink ref="B10" r:id="rId9" display="salma@XYZ.com"/>
     <hyperlink ref="B12" r:id="rId10" display="xyz@gmail.com"/>
     <hyperlink ref="B13" r:id="rId11" display="ola@gmail.com"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B20" r:id="rId13"/>
-    <hyperlink ref="B21" r:id="rId14"/>
+    <hyperlink ref="B14" r:id="rId12" display="salma@XYZ.abc"/>
+    <hyperlink ref="B20" r:id="rId13" display="z@XYZ.abc"/>
+    <hyperlink ref="B21" r:id="rId14" display="salwa@XYZ.edu.eg"/>
     <hyperlink ref="B23" r:id="rId15" display="salma@gmail.com"/>
     <hyperlink ref="B24" r:id="rId16" display="salma@gmail.com"/>
   </hyperlinks>
